--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.86118726462297</v>
+        <v>8.576682333333332</v>
       </c>
       <c r="H2">
-        <v>4.86118726462297</v>
+        <v>25.730047</v>
       </c>
       <c r="I2">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280642</v>
       </c>
       <c r="J2">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N2">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q2">
-        <v>37.64810131979434</v>
+        <v>89.11957138988009</v>
       </c>
       <c r="R2">
-        <v>37.64810131979434</v>
+        <v>802.0761425089208</v>
       </c>
       <c r="S2">
-        <v>0.01679224432501753</v>
+        <v>0.03135152944746896</v>
       </c>
       <c r="T2">
-        <v>0.01679224432501753</v>
+        <v>0.03135152944746896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.86118726462297</v>
+        <v>8.576682333333332</v>
       </c>
       <c r="H3">
-        <v>4.86118726462297</v>
+        <v>25.730047</v>
       </c>
       <c r="I3">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280642</v>
       </c>
       <c r="J3">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N3">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q3">
-        <v>173.3983949646924</v>
+        <v>306.3215213602584</v>
       </c>
       <c r="R3">
-        <v>173.3983949646924</v>
+        <v>2756.893692242326</v>
       </c>
       <c r="S3">
-        <v>0.07734117025131587</v>
+        <v>0.1077613822367437</v>
       </c>
       <c r="T3">
-        <v>0.07734117025131587</v>
+        <v>0.1077613822367437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.86118726462297</v>
+        <v>8.576682333333332</v>
       </c>
       <c r="H4">
-        <v>4.86118726462297</v>
+        <v>25.730047</v>
       </c>
       <c r="I4">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280642</v>
       </c>
       <c r="J4">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N4">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q4">
-        <v>234.921708089371</v>
+        <v>444.8763378303206</v>
       </c>
       <c r="R4">
-        <v>234.921708089371</v>
+        <v>4003.887040472885</v>
       </c>
       <c r="S4">
-        <v>0.1047825144215988</v>
+        <v>0.1565038227680844</v>
       </c>
       <c r="T4">
-        <v>0.1047825144215988</v>
+        <v>0.1565038227680845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.86118726462297</v>
+        <v>8.576682333333332</v>
       </c>
       <c r="H5">
-        <v>4.86118726462297</v>
+        <v>25.730047</v>
       </c>
       <c r="I5">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280642</v>
       </c>
       <c r="J5">
-        <v>0.255810634744671</v>
+        <v>0.3754230651280643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N5">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q5">
-        <v>127.5575560392444</v>
+        <v>226.8567470030586</v>
       </c>
       <c r="R5">
-        <v>127.5575560392444</v>
+        <v>2041.710723027528</v>
       </c>
       <c r="S5">
-        <v>0.05689470574673879</v>
+        <v>0.07980633067576715</v>
       </c>
       <c r="T5">
-        <v>0.05689470574673879</v>
+        <v>0.07980633067576717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.96671711803524</v>
+        <v>7.028452333333334</v>
       </c>
       <c r="H6">
-        <v>6.96671711803524</v>
+        <v>21.085357</v>
       </c>
       <c r="I6">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="J6">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N6">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q6">
-        <v>53.9546529784795</v>
+        <v>73.03204609158345</v>
       </c>
       <c r="R6">
-        <v>53.9546529784795</v>
+        <v>657.288414824251</v>
       </c>
       <c r="S6">
-        <v>0.02406548228262981</v>
+        <v>0.02569207086547086</v>
       </c>
       <c r="T6">
-        <v>0.02406548228262981</v>
+        <v>0.02569207086547086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.96671711803524</v>
+        <v>7.028452333333334</v>
       </c>
       <c r="H7">
-        <v>6.96671711803524</v>
+        <v>21.085357</v>
       </c>
       <c r="I7">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="J7">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N7">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q7">
-        <v>248.5025778026782</v>
+        <v>251.0255280398118</v>
       </c>
       <c r="R7">
-        <v>248.5025778026782</v>
+        <v>2259.229752358307</v>
       </c>
       <c r="S7">
-        <v>0.1108400119945822</v>
+        <v>0.08830870830804154</v>
       </c>
       <c r="T7">
-        <v>0.1108400119945822</v>
+        <v>0.08830870830804154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.96671711803524</v>
+        <v>7.028452333333334</v>
       </c>
       <c r="H8">
-        <v>6.96671711803524</v>
+        <v>21.085357</v>
       </c>
       <c r="I8">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="J8">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N8">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q8">
-        <v>336.673531804629</v>
+        <v>364.5689572197406</v>
       </c>
       <c r="R8">
-        <v>336.673531804629</v>
+        <v>3281.120614977666</v>
       </c>
       <c r="S8">
-        <v>0.1501670470924235</v>
+        <v>0.1282523492836911</v>
       </c>
       <c r="T8">
-        <v>0.1501670470924235</v>
+        <v>0.1282523492836912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.96671711803524</v>
+        <v>7.028452333333334</v>
       </c>
       <c r="H9">
-        <v>6.96671711803524</v>
+        <v>21.085357</v>
       </c>
       <c r="I9">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="J9">
-        <v>0.3666100956490067</v>
+        <v>0.3076531245457689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N9">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q9">
-        <v>182.8066603523999</v>
+        <v>185.9054318252187</v>
       </c>
       <c r="R9">
-        <v>182.8066603523999</v>
+        <v>1673.148886426968</v>
       </c>
       <c r="S9">
-        <v>0.08153755427937112</v>
+        <v>0.06539999608856532</v>
       </c>
       <c r="T9">
-        <v>0.08153755427937112</v>
+        <v>0.06539999608856534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.365760408869657</v>
+        <v>0.4119716666666666</v>
       </c>
       <c r="H10">
-        <v>0.365760408869657</v>
+        <v>1.235915</v>
       </c>
       <c r="I10">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="J10">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N10">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q10">
-        <v>2.832679381044634</v>
+        <v>4.280762296093888</v>
       </c>
       <c r="R10">
-        <v>2.832679381044634</v>
+        <v>38.52686066484499</v>
       </c>
       <c r="S10">
-        <v>0.001263464626194349</v>
+        <v>0.001505936833969584</v>
       </c>
       <c r="T10">
-        <v>0.001263464626194349</v>
+        <v>0.001505936833969584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.365760408869657</v>
+        <v>0.4119716666666666</v>
       </c>
       <c r="H11">
-        <v>0.365760408869657</v>
+        <v>1.235915</v>
       </c>
       <c r="I11">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="J11">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N11">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q11">
-        <v>13.04666213975757</v>
+        <v>14.71382322278555</v>
       </c>
       <c r="R11">
-        <v>13.04666213975757</v>
+        <v>132.42440900507</v>
       </c>
       <c r="S11">
-        <v>0.00581922409355548</v>
+        <v>0.005176201533060745</v>
       </c>
       <c r="T11">
-        <v>0.00581922409355548</v>
+        <v>0.005176201533060747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.365760408869657</v>
+        <v>0.4119716666666666</v>
       </c>
       <c r="H12">
-        <v>0.365760408869657</v>
+        <v>1.235915</v>
       </c>
       <c r="I12">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="J12">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N12">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q12">
-        <v>17.67573543780993</v>
+        <v>21.36915408936333</v>
       </c>
       <c r="R12">
-        <v>17.67573543780993</v>
+        <v>192.32238680427</v>
       </c>
       <c r="S12">
-        <v>0.007883937242275155</v>
+        <v>0.007517491985786775</v>
       </c>
       <c r="T12">
-        <v>0.007883937242275155</v>
+        <v>0.007517491985786778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.365760408869657</v>
+        <v>0.4119716666666666</v>
       </c>
       <c r="H13">
-        <v>0.365760408869657</v>
+        <v>1.235915</v>
       </c>
       <c r="I13">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="J13">
-        <v>0.0192474383857488</v>
+        <v>0.01803304119645609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N13">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q13">
-        <v>9.597553295438983</v>
+        <v>10.89681866777333</v>
       </c>
       <c r="R13">
-        <v>9.597553295438983</v>
+        <v>98.07136800996</v>
       </c>
       <c r="S13">
-        <v>0.004280812423723816</v>
+        <v>0.003833410843638986</v>
       </c>
       <c r="T13">
-        <v>0.004280812423723816</v>
+        <v>0.003833410843638987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.80940468396522</v>
+        <v>6.828273</v>
       </c>
       <c r="H14">
-        <v>6.80940468396522</v>
+        <v>20.484819</v>
       </c>
       <c r="I14">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297108</v>
       </c>
       <c r="J14">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N14">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q14">
-        <v>52.73632623352311</v>
+        <v>70.951999787613</v>
       </c>
       <c r="R14">
-        <v>52.73632623352311</v>
+        <v>638.567998088517</v>
       </c>
       <c r="S14">
-        <v>0.02352207000812409</v>
+        <v>0.0249603277485102</v>
       </c>
       <c r="T14">
-        <v>0.02352207000812409</v>
+        <v>0.02496032774851021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.80940468396522</v>
+        <v>6.828273</v>
       </c>
       <c r="H15">
-        <v>6.80940468396522</v>
+        <v>20.484819</v>
       </c>
       <c r="I15">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297108</v>
       </c>
       <c r="J15">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N15">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q15">
-        <v>242.8912482877174</v>
+        <v>243.875999172078</v>
       </c>
       <c r="R15">
-        <v>242.8912482877174</v>
+        <v>2194.883992548702</v>
       </c>
       <c r="S15">
-        <v>0.1083371814958271</v>
+        <v>0.08579356307858704</v>
       </c>
       <c r="T15">
-        <v>0.1083371814958271</v>
+        <v>0.08579356307858706</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.80940468396522</v>
+        <v>6.828273</v>
       </c>
       <c r="H16">
-        <v>6.80940468396522</v>
+        <v>20.484819</v>
       </c>
       <c r="I16">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297108</v>
       </c>
       <c r="J16">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N16">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q16">
-        <v>329.0712520108897</v>
+        <v>354.1855659197579</v>
       </c>
       <c r="R16">
-        <v>329.0712520108897</v>
+        <v>3187.670093277822</v>
       </c>
       <c r="S16">
-        <v>0.1467761897782861</v>
+        <v>0.1245995579492058</v>
       </c>
       <c r="T16">
-        <v>0.1467761897782861</v>
+        <v>0.1245995579492059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.80940468396522</v>
+        <v>6.828273</v>
       </c>
       <c r="H17">
-        <v>6.80940468396522</v>
+        <v>20.484819</v>
       </c>
       <c r="I17">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297108</v>
       </c>
       <c r="J17">
-        <v>0.3583318312205734</v>
+        <v>0.2988907691297109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N17">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q17">
-        <v>178.6787820107058</v>
+        <v>180.610606785384</v>
       </c>
       <c r="R17">
-        <v>178.6787820107058</v>
+        <v>1625.495461068456</v>
       </c>
       <c r="S17">
-        <v>0.07969638993833618</v>
+        <v>0.06353732035340774</v>
       </c>
       <c r="T17">
-        <v>0.07969638993833618</v>
+        <v>0.06353732035340777</v>
       </c>
     </row>
   </sheetData>
